--- a/KetQuaTest_LogoutServlet.xlsx
+++ b/KetQuaTest_LogoutServlet.xlsx
@@ -41,12 +41,12 @@
     <t>Logout khi không có Session</t>
   </si>
   <si>
+    <t>Session=null</t>
+  </si>
+  <si>
     <t>Session == null -&gt; Không làm gì</t>
   </si>
   <si>
-    <t>Session=null</t>
-  </si>
-  <si>
     <t>Không lỗi, Redirect Login</t>
   </si>
   <si>
@@ -62,10 +62,10 @@
     <t>Logout khi đang đăng nhập</t>
   </si>
   <si>
+    <t>Session tồn tại</t>
+  </si>
+  <si>
     <t>Session != null -&gt; invalidate()</t>
-  </si>
-  <si>
-    <t>Session tồn tại</t>
   </si>
   <si>
     <t>Session bị hủy, Redirect Login</t>
@@ -154,8 +154,8 @@
   <cols>
     <col min="1" max="1" width="12.07421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="14.02734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.02734375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="28.45703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
